--- a/data/save_data/2024/grove_michael.xlsx
+++ b/data/save_data/2024/grove_michael.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,16 @@
           <t>IP</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>I0</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IF</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -497,6 +507,12 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
+      <c r="I2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -525,6 +541,12 @@
       <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -553,6 +575,12 @@
       <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -581,6 +609,12 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -609,6 +643,12 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +677,12 @@
       <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="I7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -665,6 +711,12 @@
       <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -692,6 +744,12 @@
       </c>
       <c r="H9" t="n">
         <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -721,6 +779,12 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -749,6 +813,12 @@
       <c r="H11" t="n">
         <v>1</v>
       </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -777,6 +847,12 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
+      <c r="I12" t="n">
+        <v>7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -805,6 +881,12 @@
       <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="I13" t="n">
+        <v>8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -833,6 +915,12 @@
       <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -861,6 +949,12 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -889,6 +983,12 @@
       <c r="H16" t="n">
         <v>1</v>
       </c>
+      <c r="I16" t="n">
+        <v>7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -917,6 +1017,12 @@
       <c r="H17" t="n">
         <v>1</v>
       </c>
+      <c r="I17" t="n">
+        <v>10</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -945,6 +1051,12 @@
       <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -973,6 +1085,12 @@
       <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="I19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1001,6 +1119,12 @@
       <c r="H20" t="n">
         <v>1</v>
       </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1029,6 +1153,12 @@
       <c r="H21" t="n">
         <v>1</v>
       </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1057,6 +1187,12 @@
       <c r="H22" t="n">
         <v>1</v>
       </c>
+      <c r="I22" t="n">
+        <v>7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1085,6 +1221,12 @@
       <c r="H23" t="n">
         <v>1</v>
       </c>
+      <c r="I23" t="n">
+        <v>7</v>
+      </c>
+      <c r="J23" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1113,6 +1255,12 @@
       <c r="H24" t="n">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1141,6 +1289,12 @@
       <c r="H25" t="n">
         <v>1</v>
       </c>
+      <c r="I25" t="n">
+        <v>7</v>
+      </c>
+      <c r="J25" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1169,6 +1323,12 @@
       <c r="H26" t="n">
         <v>1</v>
       </c>
+      <c r="I26" t="n">
+        <v>7</v>
+      </c>
+      <c r="J26" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1197,6 +1357,12 @@
       <c r="H27" t="n">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1225,6 +1391,12 @@
       <c r="H28" t="n">
         <v>1</v>
       </c>
+      <c r="I28" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1253,6 +1425,12 @@
       <c r="H29" t="n">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1281,6 +1459,12 @@
       <c r="H30" t="n">
         <v>1</v>
       </c>
+      <c r="I30" t="n">
+        <v>11</v>
+      </c>
+      <c r="J30" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1309,6 +1493,12 @@
       <c r="H31" t="n">
         <v>1</v>
       </c>
+      <c r="I31" t="n">
+        <v>6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1337,6 +1527,12 @@
       <c r="H32" t="n">
         <v>2</v>
       </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1365,6 +1561,12 @@
       <c r="H33" t="n">
         <v>2</v>
       </c>
+      <c r="I33" t="n">
+        <v>5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1393,6 +1595,12 @@
       <c r="H34" t="n">
         <v>1</v>
       </c>
+      <c r="I34" t="n">
+        <v>4</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1421,6 +1629,12 @@
       <c r="H35" t="n">
         <v>3</v>
       </c>
+      <c r="I35" t="n">
+        <v>7</v>
+      </c>
+      <c r="J35" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1449,6 +1663,12 @@
       <c r="H36" t="n">
         <v>1</v>
       </c>
+      <c r="I36" t="n">
+        <v>7</v>
+      </c>
+      <c r="J36" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1477,6 +1697,12 @@
       <c r="H37" t="n">
         <v>3</v>
       </c>
+      <c r="I37" t="n">
+        <v>5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1505,6 +1731,12 @@
       <c r="H38" t="n">
         <v>3</v>
       </c>
+      <c r="I38" t="n">
+        <v>6</v>
+      </c>
+      <c r="J38" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1533,6 +1765,12 @@
       <c r="H39" t="n">
         <v>2</v>
       </c>
+      <c r="I39" t="n">
+        <v>7</v>
+      </c>
+      <c r="J39" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1561,6 +1799,12 @@
       <c r="H40" t="n">
         <v>2</v>
       </c>
+      <c r="I40" t="n">
+        <v>7</v>
+      </c>
+      <c r="J40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1589,6 +1833,12 @@
       <c r="H41" t="n">
         <v>2</v>
       </c>
+      <c r="I41" t="n">
+        <v>5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1617,6 +1867,12 @@
       <c r="H42" t="n">
         <v>2</v>
       </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1645,6 +1901,12 @@
       <c r="H43" t="n">
         <v>4</v>
       </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1673,6 +1935,12 @@
       <c r="H44" t="n">
         <v>3</v>
       </c>
+      <c r="I44" t="n">
+        <v>4</v>
+      </c>
+      <c r="J44" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1701,6 +1969,12 @@
       <c r="H45" t="n">
         <v>2</v>
       </c>
+      <c r="I45" t="n">
+        <v>3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1728,6 +2002,12 @@
       </c>
       <c r="H46" t="n">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/save_data/2024/grove_michael.xlsx
+++ b/data/save_data/2024/grove_michael.xlsx
@@ -499,7 +499,7 @@
         <v>-5</v>
       </c>
       <c r="F2" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
@@ -567,7 +567,7 @@
         <v>-4</v>
       </c>
       <c r="F4" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="G4" t="n">
         <v>11</v>
@@ -635,7 +635,7 @@
         <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
@@ -669,7 +669,7 @@
         <v>-7</v>
       </c>
       <c r="F7" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="G7" t="n">
         <v>7</v>
@@ -703,7 +703,7 @@
         <v>-7</v>
       </c>
       <c r="F8" t="n">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="G8" t="n">
         <v>7</v>
@@ -873,7 +873,7 @@
         <v>-4</v>
       </c>
       <c r="F13" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G14" t="n">
         <v>11</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G15" t="n">
         <v>5</v>
@@ -975,7 +975,7 @@
         <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G18" t="n">
         <v>10</v>
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -1213,7 +1213,7 @@
         <v>-1</v>
       </c>
       <c r="F23" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="G23" t="n">
         <v>9</v>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G32" t="n">
         <v>9</v>
@@ -1553,7 +1553,7 @@
         <v>-1</v>
       </c>
       <c r="F33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>5</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G34" t="n">
         <v>5</v>
@@ -1723,7 +1723,7 @@
         <v>-1</v>
       </c>
       <c r="F38" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G38" t="n">
         <v>14</v>
@@ -1791,7 +1791,7 @@
         <v>5</v>
       </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G40" t="n">
         <v>9</v>
@@ -1859,7 +1859,7 @@
         <v>-4</v>
       </c>
       <c r="F42" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="G42" t="n">
         <v>9</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>18</v>
@@ -1961,7 +1961,7 @@
         <v>-1</v>
       </c>
       <c r="F45" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G45" t="n">
         <v>6</v>

--- a/data/save_data/2024/grove_michael.xlsx
+++ b/data/save_data/2024/grove_michael.xlsx
@@ -502,7 +502,7 @@
         <v>-6</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -536,7 +536,7 @@
         <v>-1</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
@@ -570,7 +570,7 @@
         <v>-3</v>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
@@ -604,7 +604,7 @@
         <v>-5</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -672,7 +672,7 @@
         <v>-6</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
@@ -706,7 +706,7 @@
         <v>-9</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>-1</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -842,7 +842,7 @@
         <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -876,7 +876,7 @@
         <v>-5</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
@@ -910,7 +910,7 @@
         <v>-1</v>
       </c>
       <c r="G14" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
@@ -944,7 +944,7 @@
         <v>-2</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -978,7 +978,7 @@
         <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1046,7 +1046,7 @@
         <v>6</v>
       </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
         <v>2</v>
@@ -1080,7 +1080,7 @@
         <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1148,7 +1148,7 @@
         <v>-1</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1182,7 +1182,7 @@
         <v>-4</v>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1216,7 +1216,7 @@
         <v>-4</v>
       </c>
       <c r="G23" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1250,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1386,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1522,7 +1522,7 @@
         <v>-3</v>
       </c>
       <c r="G32" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
         <v>2</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>2</v>
@@ -1590,7 +1590,7 @@
         <v>-1</v>
       </c>
       <c r="G34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1624,7 +1624,7 @@
         <v>-2</v>
       </c>
       <c r="G35" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H35" t="n">
         <v>3</v>
@@ -1658,7 +1658,7 @@
         <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -1692,7 +1692,7 @@
         <v>-1</v>
       </c>
       <c r="G37" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H37" t="n">
         <v>3</v>
@@ -1726,7 +1726,7 @@
         <v>-2</v>
       </c>
       <c r="G38" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>3</v>
@@ -1760,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>2</v>
@@ -1794,7 +1794,7 @@
         <v>6</v>
       </c>
       <c r="G40" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>2</v>
@@ -1828,7 +1828,7 @@
         <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>2</v>
@@ -1862,7 +1862,7 @@
         <v>-7</v>
       </c>
       <c r="G42" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>2</v>
@@ -1896,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H43" t="n">
         <v>4</v>
@@ -1930,7 +1930,7 @@
         <v>6</v>
       </c>
       <c r="G44" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>3</v>
@@ -1964,7 +1964,7 @@
         <v>-3</v>
       </c>
       <c r="G45" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>2</v>
@@ -1998,7 +1998,7 @@
         <v>8</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>

--- a/data/save_data/2024/grove_michael.xlsx
+++ b/data/save_data/2024/grove_michael.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dS0</t>
+          <t>dSF</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dSF</t>
+          <t>d2S</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -496,10 +496,10 @@
         <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F2" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -530,7 +530,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F3" t="n">
         <v>-1</v>
@@ -564,10 +564,10 @@
         <v>29</v>
       </c>
       <c r="E4" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -601,7 +601,7 @@
         <v>-5</v>
       </c>
       <c r="F5" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -632,10 +632,10 @@
         <v>17</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -666,10 +666,10 @@
         <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="F7" t="n">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -700,10 +700,10 @@
         <v>24</v>
       </c>
       <c r="E8" t="n">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="F8" t="n">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>-1</v>
       </c>
       <c r="F10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -839,7 +839,7 @@
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -870,10 +870,10 @@
         <v>29</v>
       </c>
       <c r="E13" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F13" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -904,7 +904,7 @@
         <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F14" t="n">
         <v>-1</v>
@@ -938,7 +938,7 @@
         <v>23</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F15" t="n">
         <v>-2</v>
@@ -972,10 +972,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>28</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
         <v>6</v>
@@ -1077,7 +1077,7 @@
         <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1108,10 +1108,10 @@
         <v>28</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>-1</v>
       </c>
       <c r="F21" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1179,7 +1179,7 @@
         <v>-4</v>
       </c>
       <c r="F22" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -1210,10 +1210,10 @@
         <v>20</v>
       </c>
       <c r="E23" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F23" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -1247,7 +1247,7 @@
         <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1383,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1417,7 +1417,7 @@
         <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -1485,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -1516,7 +1516,7 @@
         <v>34</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F32" t="n">
         <v>-3</v>
@@ -1550,10 +1550,10 @@
         <v>18</v>
       </c>
       <c r="E33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1584,7 +1584,7 @@
         <v>16</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F34" t="n">
         <v>-1</v>
@@ -1621,7 +1621,7 @@
         <v>-2</v>
       </c>
       <c r="F35" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>5</v>
@@ -1655,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1689,7 +1689,7 @@
         <v>-1</v>
       </c>
       <c r="F37" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>4</v>
@@ -1720,10 +1720,10 @@
         <v>50</v>
       </c>
       <c r="E38" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F38" t="n">
         <v>-1</v>
-      </c>
-      <c r="F38" t="n">
-        <v>-2</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1757,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -1788,10 +1788,10 @@
         <v>28</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1825,7 +1825,7 @@
         <v>4</v>
       </c>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1856,10 +1856,10 @@
         <v>40</v>
       </c>
       <c r="E42" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="F42" t="n">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -1890,7 +1890,7 @@
         <v>28</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -1927,7 +1927,7 @@
         <v>6</v>
       </c>
       <c r="F44" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -1958,10 +1958,10 @@
         <v>12</v>
       </c>
       <c r="E45" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F45" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -1995,7 +1995,7 @@
         <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
